--- a/CTDC_Automation/TestData/Neo4jData_canine_TC1.xlsx
+++ b/CTDC_Automation/TestData/Neo4jData_canine_TC1.xlsx
@@ -897,7 +897,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\laxmi\DemoBuild\DataCommons_Automation\CTDC_Automation\TestData\Neo4jData_canine_TC1.xlsx</t>
+    <t>C:\laxmi\KatalonApril24\DataCommons_Automation\CTDC_Automation\TestData\Neo4jData_canine_TC1.xlsx</t>
   </si>
 </sst>
 </file>

--- a/CTDC_Automation/TestData/Neo4jData_canine_TC1.xlsx
+++ b/CTDC_Automation/TestData/Neo4jData_canine_TC1.xlsx
@@ -897,7 +897,7 @@
     <t>Output:</t>
   </si>
   <si>
-    <t>C:\laxmi\KatalonApril24\DataCommons_Automation\CTDC_Automation\TestData\Neo4jData_canine_TC1.xlsx</t>
+    <t>C:\laxmi\KatalonUploading\DataCommons_Automation\CTDC_Automation\TestData\Neo4jData_canine_TC1.xlsx</t>
   </si>
 </sst>
 </file>
